--- a/TestCasesAPI/Dawson, Kathleen SCHED.xlsx
+++ b/TestCasesAPI/Dawson, Kathleen SCHED.xlsx
@@ -1250,8 +1250,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9af2e30293fc1ae2c5718fcac55aaadf">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd728ddf0b116993a82566dab177cb1d" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15f4007343d69c31faccb6c57ce3ea95">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af64184185331e52028044e26cabcf7e" ns2:_="" ns3:_="">
     <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
     <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
     <xsd:element name="properties">
@@ -1274,6 +1274,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1344,6 +1345,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
@@ -1496,9 +1502,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{093BEB16-EB34-448C-BD00-7E7689B05C29}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB9D600-0E29-4A48-AF09-928B1DC3F261}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{586130E3-14F4-404A-BF14-2618C53D85D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C554F0F-CC63-4E1E-BF6F-41CD244D0677}"/>
 </file>